--- a/POSCON/POSCON Housing BOM.xlsx
+++ b/POSCON/POSCON Housing BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="25600" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="25600" windowHeight="19820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>Product Name:</t>
   </si>
   <si>
-    <t>Pos Ctrl Gen3</t>
-  </si>
-  <si>
     <t>Rev:</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Min Qty</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
   </si>
   <si>
     <t>RB221TC</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Serpac</t>
@@ -202,9 +193,6 @@
     <t>Grand Total:</t>
   </si>
   <si>
-    <t>Position Controller Rail</t>
-  </si>
-  <si>
     <t>3/8" Stainless Rod</t>
   </si>
   <si>
@@ -248,6 +236,21 @@
   </si>
   <si>
     <t>POSCON.PCB</t>
+  </si>
+  <si>
+    <t>POSCON</t>
+  </si>
+  <si>
+    <t>Position Controller Gen3</t>
+  </si>
+  <si>
+    <t>Included in Backplate</t>
+  </si>
+  <si>
+    <t>Price/Pkg</t>
+  </si>
+  <si>
+    <t>Position Controller Cart Rail</t>
   </si>
 </sst>
 </file>
@@ -715,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -733,11 +736,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="3">
         <v>2</v>
@@ -756,12 +759,14 @@
     </row>
     <row r="2" spans="1:16" ht="16">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4">
         <v>41848</v>
@@ -783,10 +788,10 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
-        <v>41911</v>
+        <v>41914</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -838,52 +843,52 @@
     </row>
     <row r="6" spans="1:16" ht="30">
       <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="O6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16">
@@ -906,11 +911,11 @@
     </row>
     <row r="8" spans="1:16" ht="30">
       <c r="A8" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -920,9 +925,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
+      <c r="L8" s="16"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="2"/>
@@ -948,14 +951,14 @@
     </row>
     <row r="10" spans="1:16" ht="16">
       <c r="A10" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
@@ -967,41 +970,39 @@
       <c r="H10" s="13">
         <v>1</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="13">
         <v>500</v>
       </c>
       <c r="K10" s="16">
-        <v>3.86</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="L10" s="16">
         <v>1930</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="30">
       <c r="A11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="E11" s="13">
         <v>2</v>
@@ -1027,10 +1028,10 @@
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P11" s="2"/>
     </row>
@@ -1056,13 +1057,13 @@
     </row>
     <row r="13" spans="1:16" ht="16">
       <c r="A13" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="13">
@@ -1075,7 +1076,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K13" s="16">
         <v>10.75</v>
@@ -1110,16 +1111,16 @@
     </row>
     <row r="15" spans="1:16" ht="30">
       <c r="A15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="13">
         <v>1</v>
@@ -1144,23 +1145,23 @@
         <v>19</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="30">
       <c r="A16" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="13">
@@ -1172,34 +1173,34 @@
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="13" t="s">
-        <v>34</v>
+      <c r="J16" s="13">
+        <v>500</v>
       </c>
       <c r="K16" s="16">
-        <v>9</v>
+        <v>3.21</v>
       </c>
       <c r="L16" s="16">
         <v>0</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="45">
       <c r="A17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="E17" s="13">
         <v>2</v>
@@ -1208,42 +1209,38 @@
       <c r="G17" s="13">
         <v>2</v>
       </c>
-      <c r="H17" s="13">
-        <v>25</v>
-      </c>
-      <c r="I17" s="16">
-        <v>5.79</v>
-      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="13">
         <v>1000</v>
       </c>
-      <c r="K17" s="16">
-        <v>0.23</v>
+      <c r="K17" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="L17" s="16">
         <v>35.799999999999997</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="45">
       <c r="A18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>52</v>
       </c>
       <c r="E18" s="13">
         <v>1</v>
@@ -1269,25 +1266,25 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="30">
       <c r="A19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="E19" s="13">
         <v>1</v>
@@ -1313,10 +1310,10 @@
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P19" s="2"/>
     </row>
@@ -1331,12 +1328,14 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K20" s="19">
-        <v>13.38</v>
+        <f>SUM(K10:K19)</f>
+        <v>18.559999999999999</v>
       </c>
       <c r="L20" s="19">
+        <f>SUM(L10:L19)</f>
         <v>2248</v>
       </c>
       <c r="M20" s="15"/>
@@ -1380,13 +1379,13 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="30">
+    <row r="23" spans="1:16" ht="45">
       <c r="A23" s="14" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="14" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -1424,13 +1423,13 @@
     </row>
     <row r="25" spans="1:16" ht="45">
       <c r="A25" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="13">
@@ -1457,25 +1456,25 @@
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="45">
       <c r="A26" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E26" s="13">
         <v>1</v>
@@ -1501,25 +1500,25 @@
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="45">
       <c r="A27" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E27" s="13">
         <v>1</v>
@@ -1529,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I27" s="16">
         <v>0.79</v>
@@ -1545,13 +1544,13 @@
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16">
@@ -1565,7 +1564,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K28" s="8">
         <v>6.91</v>
